--- a/用例/ExcelCase/TSF1.29.2to1.29.5组件升级测试用例.xlsx
+++ b/用例/ExcelCase/TSF1.29.2to1.29.5组件升级测试用例.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>修复问题和优化_运营端内存监控指标统计验证</t>
+          <t>修复问题和优化-运营端内存监控指标统计验证</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,12 +508,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>查看运营端内存监控指标</t>
+          <t>步骤
+查看运营端内存监控指标</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>内存监控指标正确</t>
+          <t>结果
+内存监控指标正确</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -545,7 +547,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>修复问题和优化_运营端参数配置密码，机器密码安全验证</t>
+          <t>修复问题和优化-运营端参数配置密码，机器密码安全验证</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -560,12 +562,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>运营端参数配置密码</t>
+          <t>步骤
+运营端参数配置密码</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>密码符合规范</t>
+          <t>结果
+密码符合规范</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -597,7 +601,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>修复问题和优化_机器设置复杂密码时一键部署成功</t>
+          <t>修复问题和优化-机器设置复杂密码时一键部署成功</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -607,17 +611,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>机器设置复杂密码</t>
+          <t>前置
+机器设置复杂密码</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>进行一键部署</t>
+          <t>步骤
+进行一键部署</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>一键部署成功</t>
+          <t>结果
+一键部署成功</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -649,7 +656,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>修复问题和优化_页面进行es/ctsdb扩缩容成功</t>
+          <t>修复问题和优化-页面进行es/ctsdb扩缩容成功</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -664,12 +671,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>页面进行es/ctsdb扩容和缩容操作</t>
+          <t>步骤
+页面进行es/ctsdb扩容和缩容操作</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>扩容和缩容都成功</t>
+          <t>结果
+扩容和缩容都成功</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -701,7 +710,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>修复问题和优化_漏洞log4j2、jackson修复</t>
+          <t>修复问题和优化-漏洞log4j2、jackson修复</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -716,12 +725,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>验证漏洞log4j2、jackson修复</t>
+          <t>步骤
+验证漏洞log4j2、jackson修复</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>不能复现</t>
+          <t>结果
+不能复现</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -753,7 +764,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>修复问题和优化_页面新增组件升级功能</t>
+          <t>修复问题和优化-页面新增组件升级功能</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -768,12 +779,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>查看页面是否新增组件升级功能</t>
+          <t>步骤
+查看页面是否新增组件升级功能</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>有新增该功能</t>
+          <t>结果
+有新增该功能</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -805,7 +818,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>修复问题和优化_运营端参数配置优化</t>
+          <t>修复问题和优化-运营端参数配置优化</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -820,12 +833,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>查看运营端参数配置</t>
+          <t>步骤
+查看运营端参数配置</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>运营端参数配置有优化</t>
+          <t>结果
+运营端参数配置有优化</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -857,7 +872,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>修复问题和优化_TSF日志格式优化</t>
+          <t>修复问题和优化-TSF日志格式优化</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -872,12 +887,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>查看TSF日志格式是否优化</t>
+          <t>步骤
+查看TSF日志格式是否优化</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>有优化</t>
+          <t>结果
+有优化</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -909,7 +926,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复租户用户管理配置权限时间无法筛选之后的时间</t>
+          <t>修复问题和优化-修复租户用户管理配置权限时间无法筛选之后的时间</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -924,12 +941,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>租户用户管理配置权限时间筛选之后的时间</t>
+          <t>步骤
+租户用户管理配置权限时间筛选之后的时间</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>能够筛选到之后的时间</t>
+          <t>结果
+能够筛选到之后的时间</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -961,7 +980,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">修复问题和优化_修复应用配置名称页面提示相关问题 </t>
+          <t xml:space="preserve">修复问题和优化-修复应用配置名称页面提示相关问题 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -976,12 +995,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>应用配置名称查看是否有校验提示</t>
+          <t>步骤
+应用配置名称查看是否有校验提示</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>有校验提示，提示语正确</t>
+          <t>结果
+有校验提示，提示语正确</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1013,7 +1034,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复渗透测试漏洞</t>
+          <t>修复问题和优化-修复渗透测试漏洞</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1028,12 +1049,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>测试是否存在越权url访问&amp;登录xss脚本注入</t>
+          <t>步骤
+测试是否存在越权url访问&amp;登录xss脚本注入</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>无渗透测试漏洞</t>
+          <t>结果
+无渗透测试漏洞</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1065,7 +1088,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复命名空间页面导出excel状态显示为空问题</t>
+          <t>修复问题和优化-修复命名空间页面导出excel状态显示为空问题</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1080,12 +1103,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>命名空间页面导出excel</t>
+          <t>步骤
+命名空间页面导出excel</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>状态不显示为空</t>
+          <t>结果
+状态不显示为空</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1117,7 +1142,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复account-配置用户权限弹窗标题为$1</t>
+          <t>修复问题和优化-修复account-配置用户权限弹窗标题为$1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1132,12 +1157,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>account-配置用户权限，查看弹窗</t>
+          <t>步骤
+account-配置用户权限，查看弹窗</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>弹窗标题不为$1</t>
+          <t>结果
+弹窗标题不为$1</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1169,7 +1196,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复应用配置名称限制问题</t>
+          <t>修复问题和优化-修复应用配置名称限制问题</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1184,12 +1211,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>新建应用配置，查看名称限制</t>
+          <t>步骤
+新建应用配置，查看名称限制</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>应用配置名称声明不支持“_”</t>
+          <t>结果
+应用配置名称声明不支持“_”</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1221,7 +1250,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复普通用户运营端权限问题</t>
+          <t>修复问题和优化-修复普通用户运营端权限问题</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1231,17 +1260,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>普通用户授权运营端相关权限</t>
+          <t>前置
+普通用户授权运营端相关权限</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>查看是否能够显示出运营端登录窗口</t>
+          <t>步骤
+查看是否能够显示出运营端登录窗口</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>权限正常，能够显示出运营端登录窗口</t>
+          <t>结果
+权限正常，能够显示出运营端登录窗口</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1273,7 +1305,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复部署组关联应用配置时，实际为关联文件配置的问题</t>
+          <t>修复问题和优化-修复部署组关联应用配置时，实际为关联文件配置的问题</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1288,12 +1320,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>部署组关联应用配置，查看是否为实际关联文件配置</t>
+          <t>步骤
+部署组关联应用配置，查看是否为实际关联文件配置</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>关联内容正确</t>
+          <t>结果
+关联内容正确</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1325,7 +1359,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复集群页面展示云主机数异常的问题</t>
+          <t>修复问题和优化-修复集群页面展示云主机数异常的问题</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1340,12 +1374,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>创建异常空集群，查看其他集群的云主机数量</t>
+          <t>步骤
+创建异常空集群，查看其他集群的云主机数量</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>展示云主机数正常</t>
+          <t>结果
+展示云主机数正常</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1377,7 +1413,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复配置用户组权限不生效问题</t>
+          <t>修复问题和优化-修复配置用户组权限不生效问题</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1392,12 +1428,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>配置用户组权限后登录属于该用户组的用户进行操作查看权限是否生效</t>
+          <t>步骤
+配置用户组权限后登录属于该用户组的用户进行操作查看权限是否生效</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>生效</t>
+          <t>结果
+生效</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1429,7 +1467,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">修复问题和优化_修复服务监控页面微服务下拉框返回全量服务名问题 </t>
+          <t xml:space="preserve">修复问题和优化-修复服务监控页面微服务下拉框返回全量服务名问题 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1444,12 +1482,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>查看服务监控页面微服务下拉框内容</t>
+          <t>步骤
+查看服务监控页面微服务下拉框内容</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>显示正常非全量服务名</t>
+          <t>结果
+显示正常非全量服务名</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1481,7 +1521,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复服务治理页面服务列表接口超时问题</t>
+          <t>修复问题和优化-修复服务治理页面服务列表接口超时问题</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1496,12 +1536,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>查看服务治理页面服务列表</t>
+          <t>步骤
+查看服务治理页面服务列表</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>不出现接口超时问题</t>
+          <t>结果
+不出现接口超时问题</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1533,7 +1575,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>修复问题和优化_运营端模块监控告警需求及界面优化</t>
+          <t>修复问题和优化-运营端模块监控告警需求及界面优化</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1548,12 +1590,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>查看运营端模块监控告警界面</t>
+          <t>步骤
+查看运营端模块监控告警界面</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>界面有优化</t>
+          <t>结果
+界面有优化</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1585,7 +1629,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">修复问题和优化_修复模块部署界面缺少master节点按钮的问题 </t>
+          <t xml:space="preserve">修复问题和优化-修复模块部署界面缺少master节点按钮的问题 </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1600,12 +1644,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>查看模块部署界面是否缺少master节点按钮</t>
+          <t>步骤
+查看模块部署界面是否缺少master节点按钮</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>不会缺少</t>
+          <t>结果
+不会缺少</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1637,7 +1683,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复服务治理实例列表页面部署组下拉框展示信息异常的问题</t>
+          <t>修复问题和优化-修复服务治理实例列表页面部署组下拉框展示信息异常的问题</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1652,12 +1698,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>查看服务治理实例列表页面部署组下拉框展示信息是否正常</t>
+          <t>步骤
+查看服务治理实例列表页面部署组下拉框展示信息是否正常</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>下拉框展示信息正常</t>
+          <t>结果
+下拉框展示信息正常</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1689,7 +1737,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复页面上传license许可文件和导入配置yaml文件失败</t>
+          <t>修复问题和优化-修复页面上传license许可文件和导入配置yaml文件失败</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1704,12 +1752,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>页面上传license许可文件和导入配置yaml文件</t>
+          <t>步骤
+页面上传license许可文件和导入配置yaml文件</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>上传成功，导入成功</t>
+          <t>结果
+上传成功，导入成功</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1741,7 +1791,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复无运营端权限用户访问stack-base页面, 会出现00字符问题</t>
+          <t>修复问题和优化-修复无运营端权限用户访问stack-base页面, 会出现00字符问题</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1751,17 +1801,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>无运营端权限用户</t>
+          <t>前置
+无运营端权限用户</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>访问stack-base页面</t>
+          <t>步骤
+访问stack-base页面</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>不会出现00字符问题</t>
+          <t>结果
+不会出现00字符问题</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1793,7 +1846,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复部署容器mesh服务后查看Sidecar状态会出现短暂异常问题</t>
+          <t>修复问题和优化-修复部署容器mesh服务后查看Sidecar状态会出现短暂异常问题</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1808,12 +1861,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>部署容器mesh服务后查看Sidecar状态</t>
+          <t>步骤
+部署容器mesh服务后查看Sidecar状态</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>不会出现短暂异常问题</t>
+          <t>结果
+不会出现短暂异常问题</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1845,7 +1900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复网关监控页面分组和api展示不准确的问题</t>
+          <t>修复问题和优化-修复网关监控页面分组和api展示不准确的问题</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1860,12 +1915,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>查看网关监控页面分组和api展示</t>
+          <t>步骤
+查看网关监控页面分组和api展示</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>展示内容准确无误</t>
+          <t>结果
+展示内容准确无误</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1897,7 +1954,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复jvm 线程信息导出异常问题</t>
+          <t>修复问题和优化-修复jvm 线程信息导出异常问题</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1912,12 +1969,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>导出jvm线程信息</t>
+          <t>步骤
+导出jvm线程信息</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>不会出现异常</t>
+          <t>结果
+不会出现异常</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1949,7 +2008,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>修复问题和优化_优化数据卷传参问题</t>
+          <t>修复问题和优化-优化数据卷传参问题</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1964,12 +2023,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>查看是否优化数据卷传参问题</t>
+          <t>步骤
+查看是否优化数据卷传参问题</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>已优化</t>
+          <t>结果
+已优化</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2001,7 +2062,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>修复问题和优化_优化容器创建中资源检测选项的显示问题</t>
+          <t>修复问题和优化-优化容器创建中资源检测选项的显示问题</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2016,12 +2077,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>查看是否优化容器创建中资源检测选项的显示问题</t>
+          <t>步骤
+查看是否优化容器创建中资源检测选项的显示问题</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>已优化</t>
+          <t>结果
+已优化</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2053,7 +2116,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>修复问题和优化_部署组权限问题修复</t>
+          <t>修复问题和优化-部署组权限问题修复</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2068,12 +2131,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>部署部署组时使用并集数据集，验证权限</t>
+          <t>步骤
+部署部署组时使用并集数据集，验证权限</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>权限生效</t>
+          <t>结果
+权限生效</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2105,7 +2170,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复微服务网关分组导入API接口，无法区分大小写接口名</t>
+          <t>修复问题和优化-修复微服务网关分组导入API接口，无法区分大小写接口名</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2120,12 +2185,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>微服务网关分组导入存在大小写的接口名</t>
+          <t>步骤
+微服务网关分组导入存在大小写的接口名</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>能够区分带小写接口名</t>
+          <t>结果
+能够区分带小写接口名</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2157,7 +2224,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复导入过多api时，出现了数据库死锁问题</t>
+          <t>修复问题和优化-修复导入过多api时，出现了数据库死锁问题</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2172,12 +2239,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>一次导入大量api，观察页面是否卡死</t>
+          <t>步骤
+一次导入大量api，观察页面是否卡死</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>页面正常，不会出现数据库死锁</t>
+          <t>结果
+页面正常，不会出现数据库死锁</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2209,7 +2278,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复组件访问db时获取数据的时间与实际时间偏移13小时的问题</t>
+          <t>修复问题和优化-修复组件访问db时获取数据的时间与实际时间偏移13小时的问题</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2224,12 +2293,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>对比组件访问db时获取数据的时间与实际时间</t>
+          <t>步骤
+对比组件访问db时获取数据的时间与实际时间</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>时间一致，不会出现偏移13小时的问题</t>
+          <t>结果
+时间一致，不会出现偏移13小时的问题</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2261,7 +2332,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复TsfTimeFormatter类SimpleDataFormat多线程异常问题</t>
+          <t>修复问题和优化-修复TsfTimeFormatter类SimpleDataFormat多线程异常问题</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2276,12 +2347,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TsfTimeFormatter类SimpleDataFormat多线程异常问题验证</t>
+          <t>步骤
+TsfTimeFormatter类SimpleDataFormat多线程异常问题验证</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>问题已修复，不会出现并发问题</t>
+          <t>结果
+问题已修复，不会出现并发问题</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2313,7 +2386,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复oss模块日志写死保存1G问题</t>
+          <t>修复问题和优化-修复oss模块日志写死保存1G问题</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2328,12 +2401,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>调整日志量</t>
+          <t>步骤
+调整日志量</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>调整成功</t>
+          <t>结果
+调整成功</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2365,7 +2440,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复标准输出日志乱序问题</t>
+          <t>修复问题和优化-修复标准输出日志乱序问题</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2380,12 +2455,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>查看标准输出的日志</t>
+          <t>步骤
+查看标准输出的日志</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>日志不会出现乱序问题</t>
+          <t>结果
+日志不会出现乱序问题</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2417,7 +2494,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复创建容器部署组请求镜像仓库返回值大于string字符串大小范围：Numeric value (2161653061) out of range of int</t>
+          <t>修复问题和优化-修复创建容器部署组请求镜像仓库返回值大于string字符串大小范围：Numeric value (2161653061) out of range of int</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2432,12 +2509,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>创建容器部署组</t>
+          <t>步骤
+创建容器部署组</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>创建成功，不出现错误</t>
+          <t>结果
+创建成功，不出现错误</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2469,7 +2548,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复TSF-概览页面中，资源概览集群和云主机数量显示错误的问题</t>
+          <t>修复问题和优化-修复TSF-概览页面中，资源概览集群和云主机数量显示错误的问题</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2484,12 +2563,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>观察TSF-概览页面资源概览集群和云主机数量是否正确</t>
+          <t>步骤
+观察TSF-概览页面资源概览集群和云主机数量是否正确</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>显示正确</t>
+          <t>结果
+显示正确</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2521,7 +2602,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>修复问题和优化_优化调用部署api接口时，新增的volume配置会被清除掉的问题</t>
+          <t>修复问题和优化-优化调用部署api接口时，新增的volume配置会被清除掉的问题</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2536,12 +2617,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>调用部署api接口，查看volume配置</t>
+          <t>步骤
+调用部署api接口，查看volume配置</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>新增的volume配置不会被清除掉</t>
+          <t>结果
+新增的volume配置不会被清除掉</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2573,7 +2656,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复没有启用svc的容器部署组在编辑yaml时会报错的问题</t>
+          <t>修复问题和优化-修复没有启用svc的容器部署组在编辑yaml时会报错的问题</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2588,12 +2671,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>没有启用svc的容器部署组创建如果没有启用service，修改deployment的label</t>
+          <t>步骤
+没有启用svc的容器部署组创建如果没有启用service，修改deployment的label</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>修改成功，不会出现报错：“service不存在，或者service name与部署组名不同”</t>
+          <t>结果
+修改成功，不会出现报错：“service不存在，或者service name与部署组名不同”</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2625,7 +2710,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>修复问题和优化_优化概览页top10聚合查询</t>
+          <t>修复问题和优化-优化概览页top10聚合查询</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2635,17 +2720,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>数据量大</t>
+          <t>前置
+数据量大</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>在概览页top10进行聚合查询</t>
+          <t>步骤
+在概览页top10进行聚合查询</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>不会出现聚合报错too many</t>
+          <t>结果
+不会出现聚合报错too many</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2677,7 +2765,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复调用链查询错误打印namepsace id的问题</t>
+          <t>修复问题和优化-修复调用链查询错误打印namepsace id的问题</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2687,17 +2775,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>调用链查询错误</t>
+          <t>前置
+调用链查询错误</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>查询日志</t>
+          <t>步骤
+查询日志</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>日志不会错误打印namespace</t>
+          <t>结果
+日志不会错误打印namespace</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2729,7 +2820,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复点击查询调用链后无数据，必须加上筛选条件的问题</t>
+          <t>修复问题和优化-修复点击查询调用链后无数据，必须加上筛选条件的问题</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2744,12 +2835,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>不加上筛选条件点击查询调用链</t>
+          <t>步骤
+不加上筛选条件点击查询调用链</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>能够查询到所有数据</t>
+          <t>结果
+能够查询到所有数据</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2781,7 +2874,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>修复问题和优化_优化调用链查询</t>
+          <t>修复问题和优化-优化调用链查询</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2796,12 +2889,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>查询调用链</t>
+          <t>步骤
+查询调用链</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>不会出现超时</t>
+          <t>结果
+不会出现超时</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2833,7 +2928,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">修复问题和优化_优化查询集群机器实例超时问题 </t>
+          <t xml:space="preserve">修复问题和优化-优化查询集群机器实例超时问题 </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2843,17 +2938,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>某个集群机器数量过千</t>
+          <t>前置
+某个集群机器数量过千</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>查询【集群列表】页面，查看响应时间</t>
+          <t>步骤
+查询【集群列表】页面，查看响应时间</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>不会出现超时问题</t>
+          <t>结果
+不会出现超时问题</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2885,7 +2983,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>修复问题和优化_熔断事件列表翻页修复</t>
+          <t>修复问题和优化-熔断事件列表翻页修复</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2900,12 +2998,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>在熔断事件列表进行翻页</t>
+          <t>步骤
+在熔断事件列表进行翻页</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>翻页成功，不会出现都是第一页的情况</t>
+          <t>结果
+翻页成功，不会出现都是第一页的情况</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2937,7 +3037,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复redis 锁粒度过大，导致全局配置不能同时发到多个命名空间问题</t>
+          <t>修复问题和优化-修复redis 锁粒度过大，导致全局配置不能同时发到多个命名空间问题</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2952,12 +3052,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>全局配置并发发布到多个命名空间</t>
+          <t>步骤
+全局配置并发发布到多个命名空间</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>发布成功</t>
+          <t>结果
+发布成功</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2989,7 +3091,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复网关context编辑的时候不允许重复问题</t>
+          <t>修复问题和优化-修复网关context编辑的时候不允许重复问题</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3004,12 +3106,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>编辑多个网关分组使用相同的context</t>
+          <t>步骤
+编辑多个网关分组使用相同的context</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>多个网关分组能够使用相同的context</t>
+          <t>结果
+多个网关分组能够使用相同的context</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3041,7 +3145,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复rsync进程挂了，健康脚本没有自动拉起的问题</t>
+          <t>修复问题和优化-修复rsync进程挂了，健康脚本没有自动拉起的问题</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3056,12 +3160,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>重启tsf-repository-server 节点机器</t>
+          <t>步骤
+重启tsf-repository-server 节点机器</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>rsync自动拉起</t>
+          <t>结果
+rsync自动拉起</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3093,7 +3199,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复war包配置启动参数不生效问题</t>
+          <t>修复问题和优化-修复war包配置启动参数不生效问题</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3108,12 +3214,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>验证修复war包配置启动参数不生效问题</t>
+          <t>步骤
+验证修复war包配置启动参数不生效问题</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>war包配置启动参数生效</t>
+          <t>结果
+war包配置启动参数生效</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3145,7 +3253,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>修复问题和优化_agent日志清理脚本优化</t>
+          <t>修复问题和优化-agent日志清理脚本优化</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3155,17 +3263,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>清理脚本/root/tsf-agent/ops/clear_log.sh 把对应agent.log日志文件删除后</t>
+          <t>前置
+清理脚本/root/tsf-agent/ops/clear_log.sh 把对应agent.log日志文件删除后</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>操作TSF产生日志文件</t>
+          <t>步骤
+操作TSF产生日志文件</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>新的日志信息无法写入，除非重启agent进程</t>
+          <t>结果
+新的日志信息无法写入，除非重启agent进程</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3197,7 +3308,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复des算法漏洞和ssl证书弱算法问题</t>
+          <t>修复问题和优化-修复des算法漏洞和ssl证书弱算法问题</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3212,12 +3323,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>验证相关Bug</t>
+          <t>步骤
+验证相关Bug</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>已修复</t>
+          <t>结果
+已修复</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3249,7 +3362,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>修复问题和优化_优化注册和服务发现相关方面的性能</t>
+          <t>修复问题和优化-优化注册和服务发现相关方面的性能</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3259,17 +3372,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>IAAS层不稳定或则网络连通性差时</t>
+          <t>前置
+IAAS层不稳定或则网络连通性差时</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>调用服务注册和服务发现相关接口</t>
+          <t>步骤
+调用服务注册和服务发现相关接口</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>不会返回500错误</t>
+          <t>结果
+不会返回500错误</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3301,7 +3417,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复部署组数量较多时查询会报错</t>
+          <t>修复问题和优化-修复部署组数量较多时查询会报错</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3311,17 +3427,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>超过1000部署组</t>
+          <t>前置
+超过1000部署组</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>查询部署组</t>
+          <t>步骤
+查询部署组</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>页面正常无报错</t>
+          <t>结果
+页面正常无报错</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3353,7 +3472,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复访问redis时使用consul中的rsport值，rsport和vport不一致时会有问题</t>
+          <t>修复问题和优化-修复访问redis时使用consul中的rsport值，rsport和vport不一致时会有问题</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3363,17 +3482,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>rsport和vport不一致</t>
+          <t>前置
+rsport和vport不一致</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>访问redis时使用consul中的rsport值</t>
+          <t>步骤
+访问redis时使用consul中的rsport值</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>不会出现报错</t>
+          <t>结果
+不会出现报错</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3405,7 +3527,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复服务治理导入大量api时由于锁粒度较大出现报错</t>
+          <t>修复问题和优化-修复服务治理导入大量api时由于锁粒度较大出现报错</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3420,12 +3542,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>服务治理导入大量api</t>
+          <t>步骤
+服务治理导入大量api</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>导入成功，不出现报错</t>
+          <t>结果
+导入成功，不出现报错</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3457,7 +3581,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>修复问题和优化_修复 网关关联过多1000部署组后，会sql 报错</t>
+          <t>修复问题和优化-修复 网关关联过多1000部署组后，会sql 报错</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3472,12 +3596,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>网关关联部署组数量超过1000</t>
+          <t>步骤
+网关关联部署组数量超过1000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>不会出现sql报错</t>
+          <t>结果
+不会出现sql报错</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3509,7 +3635,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>修复问题和优化_删除日志告警未删除定时任务</t>
+          <t>修复问题和优化-删除日志告警未删除定时任务</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3524,12 +3650,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>查看日志告警</t>
+          <t>步骤
+查看日志告警</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>已删除日志告警未删除定时任务，缓解es压力</t>
+          <t>结果
+已删除日志告警未删除定时任务，缓解es压力</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3561,7 +3689,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>修复问题和优化_优化配置发布时锁粒度大小</t>
+          <t>修复问题和优化-优化配置发布时锁粒度大小</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3576,12 +3704,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>并发将配置发布到不同命名空间下</t>
+          <t>步骤
+并发将配置发布到不同命名空间下</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>不出现报错</t>
+          <t>结果
+不出现报错</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3613,7 +3743,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>修复问题和优化_服务治理权限优化</t>
+          <t>修复问题和优化-服务治理权限优化</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3628,12 +3758,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>查看服务治理权限</t>
+          <t>步骤
+查看服务治理权限</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>服务治理权限优化</t>
+          <t>结果
+服务治理权限优化</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3665,7 +3797,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>修复问题和优化_调整路由规则限制（单服务及单路由下子规则不超过50条）</t>
+          <t>修复问题和优化-调整路由规则限制（单服务及单路由下子规则不超过50条）</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3680,12 +3812,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>单服务单路由下创建50条路由规则</t>
+          <t>步骤
+单服务单路由下创建50条路由规则</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1.最多只能创建50条路由规则
+          <t>结果
+1.最多只能创建50条路由规则
 2.创建50条路由规则是不会出现页面加载卡死</t>
         </is>
       </c>
@@ -3718,7 +3852,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>新功能_新增TSF运营端模块监控告警功能</t>
+          <t>新功能-新增TSF运营端模块监控告警功能</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3733,12 +3867,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>查看运营端模块是否新增监控告警</t>
+          <t>步骤
+查看运营端模块是否新增监控告警</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>有新增</t>
+          <t>结果
+有新增</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3770,7 +3906,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>新功能_支持用户自定义filebeat配置</t>
+          <t>新功能-支持用户自定义filebeat配置</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3785,12 +3921,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>查看是否支持用户自定义filebeat配置</t>
+          <t>步骤
+查看是否支持用户自定义filebeat配置</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>结果
+支持</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3822,7 +3960,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>新功能_支持拉取独立版租户主账号id</t>
+          <t>新功能-支持拉取独立版租户主账号id</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3837,12 +3975,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>查看是否支持拉取独立版租户主账号id</t>
+          <t>步骤
+查看是否支持拉取独立版租户主账号id</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>结果
+支持</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3874,7 +4014,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>新功能_支持数据库组件自定义账号做健康检查</t>
+          <t>新功能-支持数据库组件自定义账号做健康检查</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3889,12 +4029,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>查看是否支持数据库组件自定义账号做健康检查</t>
+          <t>步骤
+查看是否支持数据库组件自定义账号做健康检查</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>结果
+支持</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3926,7 +4068,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>新功能_分布式任务调度支持权限隔离</t>
+          <t>新功能-分布式任务调度支持权限隔离</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3941,12 +4083,14 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>查看分布式任务调度是否支持权限隔离</t>
+          <t>步骤
+查看分布式任务调度是否支持权限隔离</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>结果
+支持</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3978,7 +4122,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>新功能_新增node-exporter模块部署</t>
+          <t>新功能-新增node-exporter模块部署</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3993,12 +4137,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>部署新增的node-exporter模块</t>
+          <t>步骤
+部署新增的node-exporter模块</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>部署成功</t>
+          <t>结果
+部署成功</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4030,7 +4176,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>新功能_新增日志投递支持按照采集路径设置分行规则</t>
+          <t>新功能-新增日志投递支持按照采集路径设置分行规则</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4045,12 +4191,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>查看日志投递分行规则为按照采集路径</t>
+          <t>步骤
+查看日志投递分行规则为按照采集路径</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>支持按照采集路径设置分行规则</t>
+          <t>结果
+支持按照采集路径设置分行规则</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4082,7 +4230,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>新功能_新增应用容器添加HOST_IP环境变量</t>
+          <t>新功能-新增应用容器添加HOST_IP环境变量</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4097,12 +4245,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>查看应用容器环境变量</t>
+          <t>步骤
+查看应用容器环境变量</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>有新增添加HOST_IP环境变量</t>
+          <t>结果
+有新增添加HOST_IP环境变量</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4134,7 +4284,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>新功能_新增创建路由规则为50条的限制</t>
+          <t>新功能-新增创建路由规则为50条的限制</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4149,12 +4299,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>创建路由规则，查看最大能够创建多少条</t>
+          <t>步骤
+创建路由规则，查看最大能够创建多少条</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>最多创建50条路由规则</t>
+          <t>结果
+最多创建50条路由规则</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4186,7 +4338,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>新功能_新增页面提示scg网关不支持治理 zuul 网关不支持熔断</t>
+          <t>新功能-新增页面提示scg网关不支持治理 zuul 网关不支持熔断</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4201,13 +4353,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1.在scg网关点击治理功能
+          <t>步骤
+1.在scg网关点击治理功能
 2.在zuul网关点击熔断功能</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1.新增页面提示scg网关不支持治理
+          <t>结果
+1.新增页面提示scg网关不支持治理
 2.新增页面提示zuul网关不支持熔断</t>
         </is>
       </c>
@@ -4240,7 +4394,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>新功能_增加用户登录时的暴力破解保护</t>
+          <t>新功能-增加用户登录时的暴力破解保护</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4255,12 +4409,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>登录时尝试使用多个错误密码进行登录</t>
+          <t>步骤
+登录时尝试使用多个错误密码进行登录</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>无法登录，存在暴力破解保护</t>
+          <t>结果
+无法登录，存在暴力破解保护</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4292,7 +4448,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>新功能_支持拉取独立版租户主账号id</t>
+          <t>新功能-支持拉取独立版租户主账号id</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4307,12 +4463,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>查看是否支持拉取独立版租户主账号id</t>
+          <t>步骤
+查看是否支持拉取独立版租户主账号id</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>结果
+支持</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4344,7 +4502,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">新功能_分布式任务调度支持权限隔离 </t>
+          <t xml:space="preserve">新功能-分布式任务调度支持权限隔离 </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4359,12 +4517,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>查看权限管理中是否支持分布式任务调度权限隔离</t>
+          <t>步骤
+查看权限管理中是否支持分布式任务调度权限隔离</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>支持</t>
+          <t>结果
+支持</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4396,7 +4556,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>新功能_日志投递支持配置 Kafka 集群地址，避免单点问题</t>
+          <t>新功能-日志投递支持配置 Kafka 集群地址，避免单点问题</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4411,12 +4571,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>日志投递配置Kafka集群地址</t>
+          <t>步骤
+日志投递配置Kafka集群地址</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>能够支持配置Kafka集群地址，不出现单点问题</t>
+          <t>结果
+能够支持配置Kafka集群地址，不出现单点问题</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4448,7 +4610,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>新功能_调试API接口请求长度限制增加为4k</t>
+          <t>新功能-调试API接口请求长度限制增加为4k</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4463,12 +4625,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>观察调试API接口请求的长度</t>
+          <t>步骤
+观察调试API接口请求的长度</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>长度增加为4k，调试API不报错，请求体长度适中</t>
+          <t>结果
+长度增加为4k，调试API不报错，请求体长度适中</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4500,7 +4664,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>新功能_国密需求相关sql</t>
+          <t>新功能-国密需求相关sql</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4515,12 +4679,14 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>验证是否符合国密需求</t>
+          <t>步骤
+验证是否符合国密需求</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>符合</t>
+          <t>结果
+符合</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4552,7 +4718,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>新功能_oss模块日志支持关键字检索</t>
+          <t>新功能-oss模块日志支持关键字检索</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4567,12 +4733,14 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>通过关键字检索oss模块日志</t>
+          <t>步骤
+通过关键字检索oss模块日志</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>能够通过关键字检索oss模块日志</t>
+          <t>结果
+能够通过关键字检索oss模块日志</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
